--- a/Scripts/parameters_output_27036.xlsx
+++ b/Scripts/parameters_output_27036.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>6559111.223722462</v>
+        <v>3931351.531970818</v>
       </c>
       <c r="H7">
-        <v>31841.18588257345</v>
+        <v>35740.45988798563</v>
       </c>
       <c r="I7">
-        <v>4.15</v>
+        <v>2.78</v>
       </c>
       <c r="J7">
-        <v>272269.2563054647</v>
+        <v>109233.664873684</v>
       </c>
     </row>
     <row r="8" spans="1:10">
